--- a/BranchPredictor_stats.xlsx
+++ b/BranchPredictor_stats.xlsx
@@ -8,30 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedang/Desktop/ComputerArchitechture/projects/BranchPrediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3981C3E0-EE63-D946-9A05-4F4B93C0E50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7D6A02-7BA1-FF43-A894-AF3C83BE5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4C4C8545-CC20-2F4C-BC79-2F796151CD6E}"/>
+    <workbookView xWindow="38400" yWindow="3000" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{4C4C8545-CC20-2F4C-BC79-2F796151CD6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Local" sheetId="1" r:id="rId1"/>
     <sheet name="BiMode" sheetId="2" r:id="rId2"/>
     <sheet name="Tournament" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Local!$B$5:$B$12</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Local!$C$4</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Local!$G$5:$G$12</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Local!$H$4</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Local!$H$5:$H$12</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Local!$C$5:$C$12</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Local!$D$4</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Local!$D$5:$D$12</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Local!$E$4</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Local!$E$5:$E$12</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Local!$F$4</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Local!$F$5:$F$12</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Local!$G$4</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>BTBMissPct</t>
   </si>
@@ -131,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">Local BP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -519,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A8C942-44C8-9349-8FB5-9C01C36489BD}">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +929,7 @@
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1459,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F974A16-4CFD-C249-B168-99EC042F6F31}">
-  <dimension ref="C4:M40"/>
+  <dimension ref="C4:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1575,26 +1563,30 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
         <v>2048</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>2.0554459999999999</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>1.0616490000000001</v>
+      </c>
     </row>
     <row r="10" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -1605,9 +1597,13 @@
         <v>4096</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>2.0551119999999998</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>1.0640229999999999</v>
+      </c>
     </row>
     <row r="11" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
@@ -1617,7 +1613,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
@@ -1625,76 +1621,42 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
-        <v>2.0554459999999999</v>
+        <v>2.0551119999999998</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
-        <v>1.0616490000000001</v>
+        <v>1.063232</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>2048</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>4096</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>4096</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>4096</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>2.0551119999999998</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <v>1.0640229999999999</v>
-      </c>
     </row>
     <row r="14" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>4096</v>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <v>4096</v>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>2048</v>
+      <c r="I14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1">
-        <v>2.0551119999999998</v>
+      <c r="K14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1">
-        <v>1.063232</v>
+      <c r="M14" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="20" x14ac:dyDescent="0.25">
@@ -1713,61 +1675,83 @@
     <row r="16" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>2048</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>2048</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>2048</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>2.0550380000000001</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>1.0608580000000001</v>
+      </c>
     </row>
     <row r="17" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
+      <c r="E17" s="1">
+        <v>2048</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>3</v>
+      <c r="G17" s="1">
+        <v>2048</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>6</v>
+      <c r="I17" s="1">
+        <v>4096</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>0</v>
+      <c r="K17" s="1">
+        <v>2.0550549999999999</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>1</v>
+      <c r="M17" s="1">
+        <v>1.062441</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>4096</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>2048</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>2048</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>2.0550630000000001</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>1.0620449999999999</v>
+      </c>
     </row>
     <row r="19" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
@@ -1775,24 +1759,22 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
-        <v>2.0550380000000001</v>
+        <v>2.054729</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
-        <v>1.0608580000000001</v>
+        <v>1.063628</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1">
@@ -1800,80 +1782,62 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1">
-        <v>2.0550549999999999</v>
+        <v>2.0551119999999998</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
-        <v>1.062441</v>
+        <v>1.0640229999999999</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>4096</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1">
-        <v>2048</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1">
-        <v>2048</v>
-      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1">
-        <v>2.0550630000000001</v>
-      </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1">
-        <v>1.0620449999999999</v>
-      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>4096</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1">
-        <v>4096</v>
-      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1">
-        <v>2048</v>
-      </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
-        <v>2.054729</v>
-      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1">
-        <v>1.063628</v>
-      </c>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+      <c r="C23" s="2">
+        <v>429</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>4096</v>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1">
-        <v>4096</v>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>4096</v>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
-        <v>2.0551119999999998</v>
+      <c r="K23" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1">
-        <v>1.0640229999999999</v>
+      <c r="M23" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="20" x14ac:dyDescent="0.25">
@@ -1892,63 +1856,83 @@
     <row r="25" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>2048</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>2048</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>2048</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1">
+        <v>32.580212000000003</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>1.0483389999999999</v>
+      </c>
     </row>
     <row r="26" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
-        <v>429</v>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
+      <c r="E26" s="1">
+        <v>2048</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>3</v>
+      <c r="G26" s="1">
+        <v>2048</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>6</v>
+      <c r="I26" s="1">
+        <v>4096</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>0</v>
+      <c r="K26" s="1">
+        <v>31.965312000000001</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
-        <v>1</v>
+      <c r="M26" s="1">
+        <v>0.94978300000000004</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>4096</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>2048</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>2048</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>32.859611000000001</v>
+      </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>0.94978300000000004</v>
+      </c>
     </row>
     <row r="28" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
@@ -1956,24 +1940,22 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
-        <v>32.580212000000003</v>
+        <v>32.696986000000003</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
-        <v>1.0483389999999999</v>
+        <v>0.66674800000000001</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
@@ -1981,80 +1963,39 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
-        <v>31.965312000000001</v>
+        <v>31.805764</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
-        <v>0.94978300000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1">
-        <v>2048</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
-        <v>2048</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1">
-        <v>32.859611000000001</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1">
-        <v>0.94978300000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1">
-        <v>4096</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1">
-        <v>2048</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1">
-        <v>32.696986000000003</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1">
-        <v>0.66674800000000001</v>
+        <v>0.66684399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1">
-        <v>4096</v>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1">
-        <v>4096</v>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1">
-        <v>4096</v>
+      <c r="I32" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1">
-        <v>31.805764</v>
+      <c r="K32" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="1">
-        <v>0.66684399999999999</v>
+      <c r="M32" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="20" x14ac:dyDescent="0.25">
@@ -2073,44 +2014,56 @@
     <row r="34" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
+      <c r="E34" s="1">
+        <v>2048</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>3</v>
+      <c r="G34" s="1">
+        <v>2048</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>6</v>
+      <c r="I34" s="1">
+        <v>2048</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>0</v>
+      <c r="K34" s="1">
+        <v>31.565052999999999</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>1</v>
+      <c r="M34" s="1">
+        <v>0.48014699999999999</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>2048</v>
+      </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>2048</v>
+      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1">
+        <v>4096</v>
+      </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1">
+        <v>30.938184</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1">
+        <v>0.38159100000000001</v>
+      </c>
     </row>
     <row r="36" spans="3:13" ht="20" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
@@ -2122,36 +2075,34 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1">
-        <v>31.565052999999999</v>
+        <v>31.845976</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>0.48014699999999999</v>
+        <v>0.38159100000000001</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1">
-        <v>30.938184</v>
+        <v>31.688478</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <v>0.38159100000000001</v>
+        <v>9.8556000000000005E-2</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="20" x14ac:dyDescent="0.25">
@@ -2162,64 +2113,18 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1">
-        <v>2048</v>
+        <v>40096</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1">
-        <v>31.845976</v>
+        <v>30.783453999999999</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <v>0.38159100000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1">
-        <v>4096</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1">
-        <v>2048</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1">
-        <v>31.688478</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1">
-        <v>9.8556000000000005E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1">
-        <v>4096</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1">
-        <v>40096</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1">
-        <v>30.783453999999999</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1">
         <v>9.8556000000000005E-2</v>
       </c>
     </row>
